--- a/db/dados.xlsx
+++ b/db/dados.xlsx
@@ -736,7 +736,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>INVALID TYPE</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>@100 * (PROCESS_VARIABLE - lower_range_value) / (upper_range_value - lower_range_value)</t>
+          <t>42c80000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">

--- a/db/dados.xlsx
+++ b/db/dados.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>INVALID TYPE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>001E66</t>
+          <t>INVALID TYPE</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>INVALID TYPE</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>INVALID TYPE</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>INVALID TYPE</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>FB</t>
+          <t>INVALID TYPE</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>INVALID TYPE</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>INVALID TYPE</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">

--- a/db/dados.xlsx
+++ b/db/dados.xlsx
@@ -816,12 +816,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>INVALID TYPE</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>INVALID TYPE</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1611,27 +1611,27 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>0000</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>0000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>0000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>0000</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>0000</t>
         </is>
       </c>
     </row>
@@ -2371,27 +2371,27 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>0000</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>0000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>0000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>0000</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>0000</t>
         </is>
       </c>
     </row>

--- a/db/dados.xlsx
+++ b/db/dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SourceCode\0II2\EININDII07_hrtSimulPython\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8144F05-1BBC-4163-8D90-D0F965CA1AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6033EB12-A23C-4CDB-9FC6-10AACBF39EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="155">
   <si>
     <t>NAME</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>42c80000</t>
+  </si>
+  <si>
+    <t>00000000000000000000000000000000000041a79e79</t>
   </si>
   <si>
     <t xml:space="preserve">loop_current </t>
@@ -488,7 +491,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,14 +503,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -545,12 +540,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -855,11 +849,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1117,7 +1114,7 @@
       <c r="G10" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1531,7 +1528,7 @@
         <v>77</v>
       </c>
       <c r="G26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s">
         <v>77</v>
@@ -1539,7 +1536,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -1548,24 +1545,24 @@
         <v>66</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1591,7 +1588,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1617,7 +1614,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -1626,30 +1623,30 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -1669,13 +1666,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
         <v>21</v>
@@ -1695,13 +1692,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
@@ -1721,39 +1718,39 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F34" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G34" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H34" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D35" t="s">
         <v>32</v>
@@ -1773,65 +1770,65 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D38" t="s">
         <v>40</v>
@@ -1851,13 +1848,13 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
@@ -1877,13 +1874,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
@@ -1903,7 +1900,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1929,7 +1926,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1955,7 +1952,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1981,7 +1978,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -2007,7 +2004,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -2033,7 +2030,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -2059,7 +2056,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -2085,7 +2082,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -2111,7 +2108,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -2120,24 +2117,24 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E49" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F49" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G49" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H49" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -2163,7 +2160,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -2189,7 +2186,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -2215,7 +2212,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -2241,7 +2238,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -2267,7 +2264,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -2293,7 +2290,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -2319,7 +2316,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -2345,7 +2342,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -2371,7 +2368,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -2397,7 +2394,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -2423,7 +2420,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -2449,7 +2446,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -2475,7 +2472,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B63">
         <v>4</v>
@@ -2501,7 +2498,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B64">
         <v>4</v>
@@ -2527,7 +2524,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B65">
         <v>4</v>
@@ -2553,7 +2550,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B66">
         <v>4</v>
@@ -2579,7 +2576,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B67">
         <v>4</v>
@@ -2605,7 +2602,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B68">
         <v>4</v>
@@ -2631,7 +2628,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B69">
         <v>4</v>
@@ -2657,7 +2654,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B70">
         <v>4</v>
@@ -2683,7 +2680,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B71">
         <v>4</v>
@@ -2709,7 +2706,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -2735,7 +2732,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -2761,7 +2758,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -2787,7 +2784,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -2813,7 +2810,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -2839,7 +2836,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -2865,7 +2862,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -2891,7 +2888,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -2917,7 +2914,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -2943,7 +2940,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B81">
         <v>4</v>
@@ -2969,7 +2966,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -2995,7 +2992,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -3021,7 +3018,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B84">
         <v>4</v>
@@ -3047,7 +3044,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B85">
         <v>4</v>
@@ -3073,7 +3070,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -3099,7 +3096,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -3125,7 +3122,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B88">
         <v>1</v>

--- a/db/dados.xlsx
+++ b/db/dados.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SourceCode\hrtSimulPython\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F51B8E0-193B-4404-BCFA-6094D0A1CDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="153">
   <si>
     <t>NAME</t>
   </si>
@@ -337,6 +343,9 @@
     <t>FLOAT</t>
   </si>
   <si>
+    <t>@FLOAT</t>
+  </si>
+  <si>
     <t>ENUM10</t>
   </si>
   <si>
@@ -406,10 +415,10 @@
     <t>514CF0C60820</t>
   </si>
   <si>
-    <t>34510910F4A010581414D405481515481820820820820820</t>
-  </si>
-  <si>
-    <t>505350152054552060820820</t>
+    <t>000000000000000034510910F4A010581414D405481515481820820820820820</t>
+  </si>
+  <si>
+    <t>4121534C13E0820820820820</t>
   </si>
   <si>
     <t>130879</t>
@@ -424,10 +433,10 @@
     <t>42a00000</t>
   </si>
   <si>
-    <t>41d55c28</t>
-  </si>
-  <si>
-    <t>00000000000000000000000000000000000041044444</t>
+    <t>100 * (PROCESS_VARIABLE - lower_range_value) / (upper_range_value - lower_range_value)</t>
+  </si>
+  <si>
+    <t>(percent_of_range*0.16)+4</t>
   </si>
   <si>
     <t>0000</t>
@@ -442,40 +451,25 @@
     <t>304CF0C60820</t>
   </si>
   <si>
-    <t>34510910F4A01058104854D304F820820820820820820820</t>
-  </si>
-  <si>
-    <t>4121534C13E0820820820820</t>
-  </si>
-  <si>
-    <t>43fa0000</t>
-  </si>
-  <si>
-    <t>42c80000</t>
-  </si>
-  <si>
-    <t>@(percent_of_range*0.16)+4</t>
+    <t>000000000000000034510910F4A01058104854D304F820820820820820820820</t>
   </si>
   <si>
     <t>199CF0C60820</t>
   </si>
   <si>
+    <t>000000000000000040F4C90C93CE0443D280416058131654C060820820820820</t>
+  </si>
+  <si>
+    <t>40F4C90C93CE0443D2820820</t>
+  </si>
+  <si>
+    <t>41A00000</t>
+  </si>
+  <si>
     <t>40F4C90C93CE0443D280416058131654C060820820820820</t>
   </si>
   <si>
-    <t>40F4C90C93CE0443D2820820</t>
-  </si>
-  <si>
-    <t>41200000</t>
-  </si>
-  <si>
-    <t>@100 * (PROCESS_VARIABLE - lower_range_value) / (upper_range_value - lower_range_value)</t>
-  </si>
-  <si>
     <t>41a00000</t>
-  </si>
-  <si>
-    <t>00000000000000000000000000000000000041a79e79</t>
   </si>
   <si>
     <t>114CF0C60820</t>
@@ -490,8 +484,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,14 +547,24 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{35A29F04-5533-46A0-9269-5F8B088F0031}"/>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -598,7 +602,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -632,6 +636,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -666,9 +671,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -841,14 +847,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -874,7 +885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -885,22 +896,22 @@
         <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -911,22 +922,22 @@
         <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -937,22 +948,22 @@
         <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -963,22 +974,22 @@
         <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -989,22 +1000,22 @@
         <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1015,22 +1026,22 @@
         <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1041,22 +1052,22 @@
         <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1067,22 +1078,22 @@
         <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1093,22 +1104,22 @@
         <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1119,22 +1130,22 @@
         <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1145,22 +1156,22 @@
         <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1171,22 +1182,22 @@
         <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1197,22 +1208,22 @@
         <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H14" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1223,22 +1234,22 @@
         <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1249,22 +1260,22 @@
         <v>103</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1275,22 +1286,22 @@
         <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1301,22 +1312,22 @@
         <v>95</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1327,22 +1338,22 @@
         <v>104</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1353,22 +1364,22 @@
         <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G20" t="s">
         <v>148</v>
       </c>
       <c r="H20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1379,22 +1390,22 @@
         <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E21" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="F21" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G21" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1405,22 +1416,22 @@
         <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1431,22 +1442,22 @@
         <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1457,22 +1468,22 @@
         <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1483,22 +1494,22 @@
         <v>106</v>
       </c>
       <c r="D25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E25" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F25" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G25" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H25" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1506,25 +1517,25 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E26" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F26" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="G26" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="H26" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1532,25 +1543,25 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E27" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F27" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G27" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="H27" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1561,22 +1572,22 @@
         <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H28" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1587,22 +1598,22 @@
         <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H29" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1613,22 +1624,22 @@
         <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H30" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1636,25 +1647,25 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H31" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1662,25 +1673,25 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1688,25 +1699,25 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1714,25 +1725,25 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H34" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1740,25 +1751,25 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H35" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1766,25 +1777,25 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H36" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1792,25 +1803,25 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H37" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1818,25 +1829,25 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H38" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1844,25 +1855,25 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E39" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F39" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G39" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H39" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1870,25 +1881,25 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E40" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F40" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G40" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H40" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1899,22 +1910,22 @@
         <v>96</v>
       </c>
       <c r="D41" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E41" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F41" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G41" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H41" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1925,22 +1936,22 @@
         <v>96</v>
       </c>
       <c r="D42" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E42" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F42" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G42" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H42" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -1951,22 +1962,22 @@
         <v>96</v>
       </c>
       <c r="D43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H43" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -1977,22 +1988,22 @@
         <v>96</v>
       </c>
       <c r="D44" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E44" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F44" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G44" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H44" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2003,22 +2014,22 @@
         <v>96</v>
       </c>
       <c r="D45" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E45" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F45" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G45" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H45" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2029,22 +2040,22 @@
         <v>96</v>
       </c>
       <c r="D46" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E46" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F46" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G46" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H46" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2055,22 +2066,22 @@
         <v>106</v>
       </c>
       <c r="D47" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E47" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F47" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G47" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H47" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -2081,22 +2092,22 @@
         <v>96</v>
       </c>
       <c r="D48" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E48" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F48" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G48" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H48" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -2107,22 +2118,22 @@
         <v>95</v>
       </c>
       <c r="D49" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E49" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F49" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G49" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H49" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -2133,22 +2144,22 @@
         <v>96</v>
       </c>
       <c r="D50" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E50" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F50" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G50" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H50" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -2159,22 +2170,22 @@
         <v>96</v>
       </c>
       <c r="D51" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E51" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F51" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G51" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H51" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -2185,22 +2196,22 @@
         <v>95</v>
       </c>
       <c r="D52" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E52" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F52" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G52" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H52" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -2211,22 +2222,22 @@
         <v>96</v>
       </c>
       <c r="D53" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E53" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F53" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G53" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H53" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -2237,22 +2248,22 @@
         <v>106</v>
       </c>
       <c r="D54" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E54" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F54" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G54" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H54" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -2263,22 +2274,22 @@
         <v>106</v>
       </c>
       <c r="D55" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E55" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F55" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G55" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H55" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -2289,22 +2300,22 @@
         <v>96</v>
       </c>
       <c r="D56" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E56" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F56" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G56" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H56" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -2315,22 +2326,22 @@
         <v>96</v>
       </c>
       <c r="D57" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E57" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F57" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G57" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H57" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -2341,22 +2352,22 @@
         <v>96</v>
       </c>
       <c r="D58" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E58" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F58" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G58" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H58" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -2367,22 +2378,22 @@
         <v>96</v>
       </c>
       <c r="D59" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E59" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G59" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H59" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -2393,22 +2404,22 @@
         <v>96</v>
       </c>
       <c r="D60" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E60" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G60" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H60" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -2419,22 +2430,22 @@
         <v>96</v>
       </c>
       <c r="D61" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E61" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G61" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H61" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -2445,22 +2456,22 @@
         <v>106</v>
       </c>
       <c r="D62" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E62" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F62" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G62" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H62" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -2471,22 +2482,22 @@
         <v>106</v>
       </c>
       <c r="D63" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E63" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F63" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G63" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H63" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -2497,22 +2508,22 @@
         <v>106</v>
       </c>
       <c r="D64" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E64" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F64" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G64" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H64" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -2523,22 +2534,22 @@
         <v>106</v>
       </c>
       <c r="D65" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E65" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F65" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G65" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H65" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -2549,22 +2560,22 @@
         <v>106</v>
       </c>
       <c r="D66" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E66" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F66" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G66" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H66" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -2575,22 +2586,22 @@
         <v>106</v>
       </c>
       <c r="D67" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E67" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F67" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G67" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H67" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -2601,22 +2612,22 @@
         <v>106</v>
       </c>
       <c r="D68" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E68" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F68" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G68" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H68" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -2627,22 +2638,22 @@
         <v>106</v>
       </c>
       <c r="D69" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E69" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F69" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G69" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H69" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -2653,22 +2664,22 @@
         <v>106</v>
       </c>
       <c r="D70" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E70" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G70" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H70" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -2679,22 +2690,22 @@
         <v>106</v>
       </c>
       <c r="D71" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E71" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G71" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H71" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -2705,22 +2716,22 @@
         <v>96</v>
       </c>
       <c r="D72" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E72" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F72" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G72" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H72" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -2731,22 +2742,22 @@
         <v>96</v>
       </c>
       <c r="D73" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E73" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F73" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G73" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H73" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -2757,22 +2768,22 @@
         <v>95</v>
       </c>
       <c r="D74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H74" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -2783,22 +2794,22 @@
         <v>96</v>
       </c>
       <c r="D75" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E75" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F75" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G75" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H75" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -2809,22 +2820,22 @@
         <v>96</v>
       </c>
       <c r="D76" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E76" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F76" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G76" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H76" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -2835,22 +2846,22 @@
         <v>96</v>
       </c>
       <c r="D77" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E77" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F77" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G77" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H77" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -2861,22 +2872,22 @@
         <v>96</v>
       </c>
       <c r="D78" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E78" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F78" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G78" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H78" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -2887,22 +2898,22 @@
         <v>96</v>
       </c>
       <c r="D79" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E79" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F79" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G79" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H79" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -2913,22 +2924,22 @@
         <v>96</v>
       </c>
       <c r="D80" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E80" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F80" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G80" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H80" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -2939,22 +2950,22 @@
         <v>106</v>
       </c>
       <c r="D81" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E81" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F81" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G81" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H81" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -2965,22 +2976,22 @@
         <v>106</v>
       </c>
       <c r="D82" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E82" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F82" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G82" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H82" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -2991,22 +3002,22 @@
         <v>96</v>
       </c>
       <c r="D83" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E83" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F83" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G83" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H83" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -3017,22 +3028,22 @@
         <v>106</v>
       </c>
       <c r="D84" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E84" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F84" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G84" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H84" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -3043,22 +3054,22 @@
         <v>106</v>
       </c>
       <c r="D85" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E85" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F85" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G85" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H85" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -3069,22 +3080,22 @@
         <v>96</v>
       </c>
       <c r="D86" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E86" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F86" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G86" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H86" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -3095,22 +3106,22 @@
         <v>96</v>
       </c>
       <c r="D87" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E87" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F87" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G87" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H87" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -3121,19 +3132,19 @@
         <v>96</v>
       </c>
       <c r="D88" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E88" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F88" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G88" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H88" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/db/dados.xlsx
+++ b/db/dados.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SourceCode\hrtSimulPython\db\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F51B8E0-193B-4404-BCFA-6094D0A1CDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="155">
   <si>
     <t>NAME</t>
   </si>
@@ -421,37 +415,43 @@
     <t>4121534C13E0820820820820</t>
   </si>
   <si>
+    <t>0D084F</t>
+  </si>
+  <si>
+    <t>44548000</t>
+  </si>
+  <si>
+    <t>C3480000</t>
+  </si>
+  <si>
+    <t>42a00000</t>
+  </si>
+  <si>
+    <t>100 * (PROCESS_VARIABLE - lower_range_value) / (upper_range_value - lower_range_value)</t>
+  </si>
+  <si>
+    <t>(percent_of_range*0.16)+4</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>42480000</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>304CF0C60820</t>
+  </si>
+  <si>
+    <t>000000000000000034510910F4A01058104854D304F820820820820820820820</t>
+  </si>
+  <si>
     <t>130879</t>
-  </si>
-  <si>
-    <t>44548000</t>
-  </si>
-  <si>
-    <t>C3480000</t>
-  </si>
-  <si>
-    <t>42a00000</t>
-  </si>
-  <si>
-    <t>100 * (PROCESS_VARIABLE - lower_range_value) / (upper_range_value - lower_range_value)</t>
-  </si>
-  <si>
-    <t>(percent_of_range*0.16)+4</t>
-  </si>
-  <si>
-    <t>0000</t>
-  </si>
-  <si>
-    <t>FB</t>
-  </si>
-  <si>
-    <t>42480000</t>
-  </si>
-  <si>
-    <t>304CF0C60820</t>
-  </si>
-  <si>
-    <t>000000000000000034510910F4A01058104854D304F820820820820820820820</t>
   </si>
   <si>
     <t>199CF0C60820</t>
@@ -484,8 +484,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,24 +547,14 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{35A29F04-5533-46A0-9269-5F8B088F0031}"/>
-  </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -602,7 +592,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -636,7 +626,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -671,10 +660,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -847,19 +835,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -885,7 +868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -911,7 +894,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -937,7 +920,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -963,7 +946,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -989,7 +972,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1015,7 +998,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1041,7 +1024,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1067,7 +1050,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1093,7 +1076,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1107,19 +1090,19 @@
         <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="F10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G10" t="s">
         <v>125</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1145,7 +1128,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1171,7 +1154,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1197,7 +1180,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1223,7 +1206,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1249,7 +1232,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1275,7 +1258,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1301,7 +1284,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1327,7 +1310,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1341,19 +1324,19 @@
         <v>130</v>
       </c>
       <c r="E19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F19" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G19" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H19" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1367,19 +1350,19 @@
         <v>131</v>
       </c>
       <c r="E20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F20" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1396,16 +1379,16 @@
         <v>132</v>
       </c>
       <c r="F21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H21" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1419,19 +1402,19 @@
         <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F22" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G22" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="H22" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1457,7 +1440,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1483,7 +1466,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1500,16 +1483,16 @@
         <v>141</v>
       </c>
       <c r="F25" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G25" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H25" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1535,7 +1518,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1561,7 +1544,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1587,7 +1570,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1613,7 +1596,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1639,7 +1622,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1665,7 +1648,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1691,7 +1674,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1717,7 +1700,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1743,7 +1726,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1769,7 +1752,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1795,7 +1778,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1821,7 +1804,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1847,7 +1830,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1873,7 +1856,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1899,7 +1882,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1925,7 +1908,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1951,7 +1934,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -1977,7 +1960,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2003,7 +1986,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2029,7 +2012,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2055,7 +2038,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2081,7 +2064,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -2107,7 +2090,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -2133,7 +2116,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -2159,7 +2142,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -2185,7 +2168,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -2211,7 +2194,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -2237,7 +2220,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -2263,7 +2246,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -2289,7 +2272,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -2315,7 +2298,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -2341,7 +2324,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -2367,7 +2350,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -2393,7 +2376,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -2419,7 +2402,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -2445,7 +2428,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -2471,7 +2454,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -2497,7 +2480,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -2523,7 +2506,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -2549,7 +2532,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -2575,7 +2558,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -2601,7 +2584,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -2627,7 +2610,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -2653,7 +2636,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -2679,7 +2662,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -2705,7 +2688,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -2731,7 +2714,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -2757,7 +2740,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -2783,7 +2766,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -2809,7 +2792,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -2835,7 +2818,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -2861,7 +2844,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -2887,7 +2870,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -2913,7 +2896,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -2939,7 +2922,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -2965,7 +2948,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -2991,7 +2974,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -3017,7 +3000,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -3043,7 +3026,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -3069,7 +3052,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -3095,7 +3078,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -3121,7 +3104,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>94</v>
       </c>

--- a/db/dados.xlsx
+++ b/db/dados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="157">
   <si>
     <t>NAME</t>
   </si>
@@ -25,19 +25,19 @@
     <t>TYPE</t>
   </si>
   <si>
+    <t>LIT100</t>
+  </si>
+  <si>
+    <t>FV100</t>
+  </si>
+  <si>
+    <t>FV101</t>
+  </si>
+  <si>
     <t>TIT100</t>
   </si>
   <si>
-    <t>FY301</t>
-  </si>
-  <si>
-    <t>LD301</t>
-  </si>
-  <si>
-    <t>TT301</t>
-  </si>
-  <si>
-    <t>DT301</t>
+    <t>PIT100</t>
   </si>
   <si>
     <t>frame_type</t>
@@ -391,51 +391,51 @@
     <t>3E</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>001E66</t>
+  </si>
+  <si>
+    <t>514CF0C60820</t>
+  </si>
+  <si>
+    <t>00000000000000000003895853205150953013E04D54054893D2820820820820</t>
+  </si>
+  <si>
+    <t>0000000000000000000000000E25614C</t>
+  </si>
+  <si>
+    <t>0D084F</t>
+  </si>
+  <si>
+    <t>44548000</t>
+  </si>
+  <si>
+    <t>C3480000</t>
+  </si>
+  <si>
+    <t>42a00000</t>
+  </si>
+  <si>
+    <t>100 * (PROCESS_VARIABLE - lower_range_value) / (upper_range_value - lower_range_value)</t>
+  </si>
+  <si>
+    <t>(percent_of_range*0.16)+4</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
     <t>02</t>
   </si>
   <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>001E66</t>
-  </si>
-  <si>
-    <t>514CF0C60820</t>
-  </si>
-  <si>
-    <t>000000000000000034510910F4A010581414D405481515481820820820820820</t>
-  </si>
-  <si>
-    <t>4121534C13E0820820820820</t>
-  </si>
-  <si>
-    <t>0D084F</t>
-  </si>
-  <si>
-    <t>44548000</t>
-  </si>
-  <si>
-    <t>C3480000</t>
-  </si>
-  <si>
-    <t>42a00000</t>
-  </si>
-  <si>
-    <t>100 * (PROCESS_VARIABLE - lower_range_value) / (upper_range_value - lower_range_value)</t>
-  </si>
-  <si>
-    <t>(percent_of_range*0.16)+4</t>
-  </si>
-  <si>
-    <t>0000</t>
-  </si>
-  <si>
     <t>FB</t>
   </si>
   <si>
@@ -448,7 +448,10 @@
     <t>304CF0C60820</t>
   </si>
   <si>
-    <t>000000000000000034510910F4A01058104854D304F820820820820820820820</t>
+    <t>000000000000000000000000000000000000000000001605A04F804160047541</t>
+  </si>
+  <si>
+    <t>0000000000000040F4C90C93CE0443D2</t>
   </si>
   <si>
     <t>130879</t>
@@ -457,16 +460,19 @@
     <t>199CF0C60820</t>
   </si>
   <si>
-    <t>000000000000000040F4C90C93CE0443D280416058131654C060820820820820</t>
-  </si>
-  <si>
-    <t>40F4C90C93CE0443D2820820</t>
+    <t>00000000000000000000000000000000000000000005816813E01058160503D2</t>
+  </si>
+  <si>
+    <t>0000000040F4C90C93CE0443D2820820</t>
   </si>
   <si>
     <t>41A00000</t>
   </si>
   <si>
-    <t>40F4C90C93CE0443D280416058131654C060820820820820</t>
+    <t>000000000000000000000000000001414D40548151548180406018F48E04C201</t>
+  </si>
+  <si>
+    <t>0000000001414D405481515481820820</t>
   </si>
   <si>
     <t>41a00000</t>
@@ -475,10 +481,10 @@
     <t>114CF0C60820</t>
   </si>
   <si>
-    <t>34510910F4A010580414E4C9101105820820820820820820</t>
-  </si>
-  <si>
-    <t>105393244044160820820820</t>
+    <t>00000000000000000000000000000000000104854D304F80406018F48E04C201</t>
+  </si>
+  <si>
+    <t>000000000000000000000104854D304F</t>
   </si>
 </sst>
 </file>
@@ -1093,13 +1099,13 @@
         <v>142</v>
       </c>
       <c r="F10" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="G10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H10" t="s">
         <v>125</v>
-      </c>
-      <c r="H10" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1217,19 +1223,19 @@
         <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1269,19 +1275,19 @@
         <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1321,19 +1327,19 @@
         <v>104</v>
       </c>
       <c r="D19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E19" t="s">
         <v>143</v>
       </c>
       <c r="F19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H19" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1347,19 +1353,19 @@
         <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E20" t="s">
         <v>144</v>
       </c>
       <c r="F20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H20" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1373,19 +1379,19 @@
         <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E21" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="F21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G21" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1399,19 +1405,19 @@
         <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1425,19 +1431,19 @@
         <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1451,19 +1457,19 @@
         <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1477,16 +1483,16 @@
         <v>106</v>
       </c>
       <c r="D25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E25" t="s">
         <v>141</v>
       </c>
       <c r="F25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H25" t="s">
         <v>141</v>
@@ -1503,19 +1509,19 @@
         <v>107</v>
       </c>
       <c r="D26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1529,19 +1535,19 @@
         <v>107</v>
       </c>
       <c r="D27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1607,19 +1613,19 @@
         <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1737,19 +1743,19 @@
         <v>112</v>
       </c>
       <c r="D35" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="E35" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="F35" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G35" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="H35" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1815,19 +1821,19 @@
         <v>115</v>
       </c>
       <c r="D38" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E38" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F38" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G38" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H38" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2101,19 +2107,19 @@
         <v>95</v>
       </c>
       <c r="D49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:8">

--- a/db/dados.xlsx
+++ b/db/dados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="156">
   <si>
     <t>NAME</t>
   </si>
@@ -388,60 +388,63 @@
     <t>80</t>
   </si>
   <si>
+    <t>3F</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>001E66</t>
+  </si>
+  <si>
+    <t>514CF0C60820</t>
+  </si>
+  <si>
+    <t>00000000000000000003895853205150953013E04D54054893D2820820820820</t>
+  </si>
+  <si>
+    <t>0000000000000000000000000E25614C</t>
+  </si>
+  <si>
+    <t>130879</t>
+  </si>
+  <si>
+    <t>44548000</t>
+  </si>
+  <si>
+    <t>C3480000</t>
+  </si>
+  <si>
+    <t>42700000</t>
+  </si>
+  <si>
+    <t>100 * (PROCESS_VARIABLE - lower_range_value) / (upper_range_value - lower_range_value)</t>
+  </si>
+  <si>
+    <t>(percent_of_range*0.16)+4</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>42480000</t>
+  </si>
+  <si>
     <t>3E</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>001E66</t>
-  </si>
-  <si>
-    <t>514CF0C60820</t>
-  </si>
-  <si>
-    <t>00000000000000000003895853205150953013E04D54054893D2820820820820</t>
-  </si>
-  <si>
-    <t>0000000000000000000000000E25614C</t>
-  </si>
-  <si>
-    <t>0D084F</t>
-  </si>
-  <si>
-    <t>44548000</t>
-  </si>
-  <si>
-    <t>C3480000</t>
-  </si>
-  <si>
-    <t>42a00000</t>
-  </si>
-  <si>
-    <t>100 * (PROCESS_VARIABLE - lower_range_value) / (upper_range_value - lower_range_value)</t>
-  </si>
-  <si>
-    <t>(percent_of_range*0.16)+4</t>
-  </si>
-  <si>
-    <t>0000</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>FB</t>
-  </si>
-  <si>
-    <t>42480000</t>
-  </si>
-  <si>
     <t>03</t>
   </si>
   <si>
@@ -454,9 +457,6 @@
     <t>0000000000000040F4C90C93CE0443D2</t>
   </si>
   <si>
-    <t>130879</t>
-  </si>
-  <si>
     <t>199CF0C60820</t>
   </si>
   <si>
@@ -473,9 +473,6 @@
   </si>
   <si>
     <t>0000000001414D405481515481820820</t>
-  </si>
-  <si>
-    <t>41a00000</t>
   </si>
   <si>
     <t>114CF0C60820</t>
@@ -1070,16 +1067,16 @@
         <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="F9" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="G9" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="H9" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1096,10 +1093,10 @@
         <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G10" t="s">
         <v>139</v>
@@ -1330,7 +1327,7 @@
         <v>129</v>
       </c>
       <c r="E19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F19" t="s">
         <v>147</v>
@@ -1339,7 +1336,7 @@
         <v>147</v>
       </c>
       <c r="H19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1356,7 +1353,7 @@
         <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F20" t="s">
         <v>148</v>
@@ -1365,7 +1362,7 @@
         <v>151</v>
       </c>
       <c r="H20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1382,7 +1379,7 @@
         <v>131</v>
       </c>
       <c r="E21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F21" t="s">
         <v>149</v>
@@ -1391,7 +1388,7 @@
         <v>152</v>
       </c>
       <c r="H21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1408,16 +1405,16 @@
         <v>132</v>
       </c>
       <c r="E22" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="F22" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G22" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="H22" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1492,7 +1489,7 @@
         <v>150</v>
       </c>
       <c r="G25" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H25" t="s">
         <v>141</v>

--- a/db/dados.xlsx
+++ b/db/dados.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SourceCode\hrtSimulPython\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060B5A33-3BD7-43DD-A929-DF15F18EB189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="145">
   <si>
     <t>NAME</t>
   </si>
@@ -337,39 +343,6 @@
     <t>FLOAT</t>
   </si>
   <si>
-    <t>@FLOAT</t>
-  </si>
-  <si>
-    <t>ENUM10</t>
-  </si>
-  <si>
-    <t>ENUM02</t>
-  </si>
-  <si>
-    <t>ENUM03</t>
-  </si>
-  <si>
-    <t>ENUM06</t>
-  </si>
-  <si>
-    <t>ENUM04</t>
-  </si>
-  <si>
-    <t>ENUM07</t>
-  </si>
-  <si>
-    <t>ENUM09</t>
-  </si>
-  <si>
-    <t>ENUM11</t>
-  </si>
-  <si>
-    <t>ENUM14</t>
-  </si>
-  <si>
-    <t>ENUM15</t>
-  </si>
-  <si>
     <t>06</t>
   </si>
   <si>
@@ -424,12 +397,6 @@
     <t>42700000</t>
   </si>
   <si>
-    <t>100 * (PROCESS_VARIABLE - lower_range_value) / (upper_range_value - lower_range_value)</t>
-  </si>
-  <si>
-    <t>(percent_of_range*0.16)+4</t>
-  </si>
-  <si>
     <t>0000</t>
   </si>
   <si>
@@ -482,13 +449,19 @@
   </si>
   <si>
     <t>000000000000000000000104854D304F</t>
+  </si>
+  <si>
+    <t>@(percent_of_range*0.16)+4</t>
+  </si>
+  <si>
+    <t>@100 * (PROCESS_VARIABLE - lower_range_value) / (upper_range_value - lower_range_value)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,24 +513,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{CB7EAE2F-06E3-4979-8C5A-FF9B29993C97}"/>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -595,7 +579,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -629,6 +613,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -663,9 +648,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -838,14 +824,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -871,7 +859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -882,22 +870,22 @@
         <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="H2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -908,22 +896,22 @@
         <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G3" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -934,22 +922,22 @@
         <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="G4" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="H4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -960,22 +948,22 @@
         <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F5" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G5" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="H5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -986,22 +974,22 @@
         <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F6" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="G6" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="H6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1012,22 +1000,22 @@
         <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F7" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G7" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1038,22 +1026,22 @@
         <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="H8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1064,22 +1052,22 @@
         <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="F9" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="G9" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="H9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1090,22 +1078,22 @@
         <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="F10" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G10" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1116,22 +1104,22 @@
         <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="H11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1142,22 +1130,22 @@
         <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="G12" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="H12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1168,22 +1156,22 @@
         <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E13" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G13" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="H13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1194,22 +1182,22 @@
         <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="G14" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="H14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1220,22 +1208,22 @@
         <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F15" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="G15" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="H15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1246,22 +1234,22 @@
         <v>103</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E16" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F16" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G16" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1272,22 +1260,22 @@
         <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="F17" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G17" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="H17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1298,22 +1286,22 @@
         <v>95</v>
       </c>
       <c r="D18" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F18" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G18" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="H18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1324,22 +1312,22 @@
         <v>104</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E19" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F19" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G19" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="H19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1350,22 +1338,22 @@
         <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F20" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="G20" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="H20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1376,22 +1364,22 @@
         <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F21" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="G21" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="H21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1402,22 +1390,22 @@
         <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F22" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="G22" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="H22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1428,22 +1416,22 @@
         <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E23" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F23" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G23" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1454,22 +1442,22 @@
         <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E24" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F24" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G24" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="H24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1480,22 +1468,22 @@
         <v>106</v>
       </c>
       <c r="D25" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E25" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F25" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="G25" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="H25" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1503,25 +1491,25 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" t="s">
-        <v>136</v>
-      </c>
-      <c r="F26" t="s">
-        <v>136</v>
-      </c>
-      <c r="G26" t="s">
-        <v>136</v>
-      </c>
-      <c r="H26" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1529,25 +1517,25 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" t="s">
-        <v>137</v>
-      </c>
-      <c r="E27" t="s">
-        <v>137</v>
-      </c>
-      <c r="F27" t="s">
-        <v>137</v>
-      </c>
-      <c r="G27" t="s">
-        <v>137</v>
-      </c>
-      <c r="H27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1555,25 +1543,25 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D28" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E28" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F28" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G28" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1581,25 +1569,25 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D29" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E29" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F29" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G29" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1607,25 +1595,25 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D30" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="E30" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="F30" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="G30" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="H30" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1633,25 +1621,25 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D31" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E31" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F31" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G31" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H31" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1659,25 +1647,25 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E32" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F32" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="G32" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="H32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1685,25 +1673,25 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D33" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E33" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F33" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G33" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H33" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1711,25 +1699,25 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D34" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E34" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="F34" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="G34" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="H34" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1737,25 +1725,25 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D35" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="F35" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="G35" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="H35" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1763,25 +1751,25 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D36" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E36" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="F36" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="G36" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="H36" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1789,25 +1777,25 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D37" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E37" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="F37" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="G37" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="H37" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1815,25 +1803,25 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D38" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E38" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F38" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="G38" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="H38" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1841,25 +1829,25 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D39" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E39" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F39" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G39" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H39" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1867,25 +1855,25 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D40" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E40" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F40" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G40" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H40" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1893,25 +1881,25 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E41" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F41" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G41" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H41" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1919,25 +1907,25 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D42" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E42" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F42" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G42" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H42" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -1945,25 +1933,25 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D43" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E43" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F43" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G43" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H43" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -1971,25 +1959,25 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D44" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E44" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F44" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G44" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H44" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -1997,25 +1985,25 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D45" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E45" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F45" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G45" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H45" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2023,25 +2011,25 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D46" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E46" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F46" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G46" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H46" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2052,22 +2040,22 @@
         <v>106</v>
       </c>
       <c r="D47" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E47" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F47" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G47" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="H47" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -2075,25 +2063,25 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D48" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E48" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F48" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G48" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H48" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -2101,25 +2089,25 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D49" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="E49" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="F49" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="G49" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="H49" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -2127,25 +2115,25 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D50" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E50" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F50" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G50" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H50" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -2153,25 +2141,25 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D51" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E51" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F51" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G51" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H51" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -2179,25 +2167,25 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D52" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E52" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F52" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G52" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H52" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -2205,25 +2193,25 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D53" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E53" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F53" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G53" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H53" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -2234,22 +2222,22 @@
         <v>106</v>
       </c>
       <c r="D54" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E54" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F54" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G54" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="H54" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -2260,22 +2248,22 @@
         <v>106</v>
       </c>
       <c r="D55" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E55" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F55" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G55" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="H55" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -2283,25 +2271,25 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D56" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E56" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F56" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G56" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H56" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -2309,25 +2297,25 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D57" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E57" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F57" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G57" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H57" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -2335,25 +2323,25 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D58" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E58" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F58" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G58" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H58" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -2361,25 +2349,25 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D59" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E59" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F59" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G59" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -2387,25 +2375,25 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D60" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F60" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G60" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H60" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -2413,25 +2401,25 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D61" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F61" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G61" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H61" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -2442,22 +2430,22 @@
         <v>106</v>
       </c>
       <c r="D62" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E62" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F62" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G62" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="H62" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -2468,22 +2456,22 @@
         <v>106</v>
       </c>
       <c r="D63" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E63" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F63" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G63" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="H63" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -2494,22 +2482,22 @@
         <v>106</v>
       </c>
       <c r="D64" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E64" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F64" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G64" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="H64" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -2520,22 +2508,22 @@
         <v>106</v>
       </c>
       <c r="D65" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E65" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F65" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G65" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="H65" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -2546,22 +2534,22 @@
         <v>106</v>
       </c>
       <c r="D66" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E66" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F66" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G66" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="H66" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -2572,22 +2560,22 @@
         <v>106</v>
       </c>
       <c r="D67" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E67" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F67" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G67" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="H67" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -2598,22 +2586,22 @@
         <v>106</v>
       </c>
       <c r="D68" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E68" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F68" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G68" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="H68" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -2624,22 +2612,22 @@
         <v>106</v>
       </c>
       <c r="D69" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E69" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F69" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G69" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="H69" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -2650,22 +2638,22 @@
         <v>106</v>
       </c>
       <c r="D70" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E70" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F70" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G70" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="H70" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -2676,22 +2664,22 @@
         <v>106</v>
       </c>
       <c r="D71" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F71" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G71" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="H71" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -2699,25 +2687,25 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D72" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E72" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F72" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G72" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H72" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -2725,25 +2713,25 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D73" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E73" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F73" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G73" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H73" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -2751,25 +2739,25 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D74" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E74" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F74" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G74" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H74" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -2777,25 +2765,25 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D75" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E75" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F75" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G75" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H75" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -2803,25 +2791,25 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D76" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E76" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F76" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G76" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H76" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -2829,25 +2817,25 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D77" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E77" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F77" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G77" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H77" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -2855,25 +2843,25 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D78" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E78" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F78" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G78" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H78" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -2881,25 +2869,25 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D79" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E79" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F79" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G79" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H79" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -2907,25 +2895,25 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D80" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E80" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F80" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G80" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H80" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -2936,22 +2924,22 @@
         <v>106</v>
       </c>
       <c r="D81" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E81" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F81" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G81" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="H81" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -2962,22 +2950,22 @@
         <v>106</v>
       </c>
       <c r="D82" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E82" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F82" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G82" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="H82" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -2985,25 +2973,25 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D83" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E83" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F83" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G83" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H83" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -3014,22 +3002,22 @@
         <v>106</v>
       </c>
       <c r="D84" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E84" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F84" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G84" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="H84" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -3040,22 +3028,22 @@
         <v>106</v>
       </c>
       <c r="D85" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E85" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F85" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G85" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="H85" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -3063,25 +3051,25 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E86" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F86" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G86" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H86" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -3089,25 +3077,25 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D87" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E87" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F87" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G87" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H87" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -3115,22 +3103,22 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D88" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E88" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F88" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G88" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H88" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
